--- a/medicine/Mort/Cimetière_Christophe_Colomb/Cimetière_Christophe_Colomb.xlsx
+++ b/medicine/Mort/Cimetière_Christophe_Colomb/Cimetière_Christophe_Colomb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Christophe_Colomb</t>
+          <t>Cimetière_Christophe_Colomb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Christophe Colomb (ou Necrópolis de Cristóbal Colón en espagnol) est une nécropole située à Cuba dans le quartier El Vedado de La Havane et fondée en 1876. Classé monument national, elle est avec ses 57 hectares la plus étendue du pays et renferme un grand nombre d'œuvres architecturales et sculpturales. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Christophe_Colomb</t>
+          <t>Cimetière_Christophe_Colomb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Santiago Álvarez (1919–1998), réalisateur
 Manuel Arteaga y Betancourt, cardinal
